--- a/ExperimentSummaryFIles/cellranger_counts_summary.xlsx
+++ b/ExperimentSummaryFIles/cellranger_counts_summary.xlsx
@@ -12,8 +12,10 @@
     <sheet name="path" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$H$93</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$J$95</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$H$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">aggregation!$A$1:$J$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">aggregation!$A$1:$H$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">aggregation!$A$1:$J$95</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="143">
   <si>
     <t xml:space="preserve">sample_id</t>
   </si>
@@ -427,6 +429,24 @@
   </si>
   <si>
     <t xml:space="preserve">STARR_031_force3000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force2500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force2600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_032_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">middle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_031_force2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STARR_039_force1500</t>
   </si>
   <si>
     <t xml:space="preserve">File</t>
@@ -540,14 +560,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P95"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="D97" activeCellId="0" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4649,10 +4669,13 @@
         <v>130</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J92" s="1" t="n">
         <v>20211103</v>
@@ -4796,10 +4819,13 @@
         <v>133</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>40</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J95" s="1" t="n">
         <v>20211103</v>
@@ -4824,8 +4850,262 @@
         <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force3000/outs/metrics_summary.csv</v>
       </c>
     </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K96, $L96, "/", $E96, "/", $F96,  $M96, $N96)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/molecule_info.h5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" s="1" t="n">
+        <v>20211106</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K96, $L96, "/", $E96, "/", $F96,  $M96, $O96,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K97, $L97, "/", $E97, "/", $F97,  $M97, $N97)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/molecule_info.h5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" s="1" t="n">
+        <v>20211103</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K97, $L97, "/", $E97, "/", $F97,  $M97, $O97,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2600/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K98, $L98, "/", $E98, "/", $F98,  $M98, $N98)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/molecule_info.h5</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J98" s="1" t="n">
+        <v>20211106</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P98" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K98, $L98, "/", $E98, "/", $F98,  $M98, $O98,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_032_force2000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B99" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K99, $L99, "/", $E99, "/", $F99,  $M99, $N99)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/molecule_info.h5</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J99" s="1" t="n">
+        <v>20211103</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P99" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K99, $L99, "/", $E99, "/", $F99,  $M99, $O99,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_1/20191121_NovaSeq_Counts/STARR_031_force2000/outs/metrics_summary.csv</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K100, $L100, "/", $E100, "/", $F100,  $M100, $N100)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/molecule_info.h5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>20211103</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P100" s="1" t="str">
+        <f aca="false">_xlfn.CONCAT($K100, $L100, "/", $E100, "/", $F100,  $M100, $O100,)</f>
+        <v>/media/jianie/Seagate_SequencingFiles_2/20210126_UTA_NovaSeq_L3_Counts/STARR_039_force1500/outs/metrics_summary.csv</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H93"/>
+  <autoFilter ref="A1:H100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4873,7 +5153,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -4881,7 +5161,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>21</v>
@@ -4893,271 +5173,271 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
